--- a/biology/Médecine/Tumeur_blanche_du_genou/Tumeur_blanche_du_genou.xlsx
+++ b/biology/Médecine/Tumeur_blanche_du_genou/Tumeur_blanche_du_genou.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une « tumeur blanche du genou » est une monoarthrite subaiguë ou chronique du genou provoquée par le bacille de Koch (tuberculose articulaire).
 L’évolution est volontiers torpide.
-Les signes inflammatoires locaux sont discrets ou absents. On parle souvent de « tumeur blanche du genou » ou de « coxalgie » à la hanche. La clinique est superposable à celle d’une monoarthrite subaiguë dans le cadre d’un rhumatisme inflammatoire[1].
+Les signes inflammatoires locaux sont discrets ou absents. On parle souvent de « tumeur blanche du genou » ou de « coxalgie » à la hanche. La clinique est superposable à celle d’une monoarthrite subaiguë dans le cadre d’un rhumatisme inflammatoire.
 </t>
         </is>
       </c>
@@ -514,6 +526,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -540,6 +554,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -562,16 +578,12 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Diagnostic</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Signes cliniques
-Examens complémentaires
-Diagnostic différentiel</t>
-        </is>
-      </c>
+          <t>Prise en charge</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -594,10 +606,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Prise en charge</t>
+          <t>Évolution et complications</t>
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,36 +634,12 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Évolution et complications</t>
+          <t>Prévention</t>
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Tumeur_blanche_du_genou</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Tumeur_blanche_du_genou</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Prévention</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
